--- a/reverse/data_gempa_dengan_lokasi.xlsx
+++ b/reverse/data_gempa_dengan_lokasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\Skripsi\reverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48960486-C3C0-4A7D-B349-E55A78C04D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459F200-9E8B-4495-92F6-D8BEF15AC89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total  gempa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Total  gempa'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -602,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2856"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1109" sqref="B1109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35946,11 +35957,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2856">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -59271,7 +59277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594F8E24-275F-4AFB-8394-2AC0CB57CEA2}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
